--- a/Service.MedicalRecord/wwwroot/layout/excel/expediente/ExpedienteFormulario.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/expediente/ExpedienteFormulario.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReposAxsis\API\Service.Catalog\wwwroot\layout\excel\branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\expediente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61AA138-7733-442F-9E5D-35BE0EA3AA10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558959A2-227A-439B-AB73-E8C00C4C7B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sucursales" sheetId="1" r:id="rId1"/>
+    <sheet name="Expediente" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sucursales" localSheetId="0">Sucursales!$A$3:$F$19</definedName>
+    <definedName name="Expediente" localSheetId="0">Expediente!$A$3:$F$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Clave</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -75,88 +72,79 @@
     </r>
   </si>
   <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>Codigo postal</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Colonia</t>
   </si>
   <si>
-    <t>Número Exterior</t>
-  </si>
-  <si>
-    <t>Número interior</t>
-  </si>
-  <si>
-    <t>Calle</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Clinicos</t>
-  </si>
-  <si>
-    <t>Presupuestos</t>
-  </si>
-  <si>
-    <t>Facturacion</t>
-  </si>
-  <si>
-    <t>{{Sucursales.Clave}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.Nombre}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.Calle}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.Correo}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.Telefono}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.NumeroExt}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.NumeroInt}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.PresupuestosId}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.FacturaciónId}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.ClinicosId}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.Activo}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.estado}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.ciudad}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.coloniaId}}</t>
-  </si>
-  <si>
-    <t>{{Sucursales.codigoPostal}}</t>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Calle y Número</t>
+  </si>
+  <si>
+    <t>{{Expediente.Nombre}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Calle}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Correo}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Telefono}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Apellido}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Sexo}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.FechaNacimiento}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Edad}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Cp}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Estado}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Municipio}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Celular}}</t>
+  </si>
+  <si>
+    <t>{{Expediente.Colonia}}</t>
   </si>
 </sst>
 </file>
@@ -611,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -634,14 +622,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -652,17 +640,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -673,17 +661,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -694,17 +682,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -715,18 +703,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,18 +720,14 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,10 +736,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
@@ -771,7 +751,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
@@ -785,10 +765,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1"/>
@@ -810,13 +790,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
@@ -825,7 +799,13 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
